--- a/GradeDistributionsDB/Summer2013/Output/Summer2013 EN.xlsx
+++ b/GradeDistributionsDB/Summer2013/Output/Summer2013 EN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="295">
   <si>
     <t>Course</t>
   </si>
@@ -130,6 +130,12 @@
     <t>23.26%</t>
   </si>
   <si>
+    <t>CHEN-489</t>
+  </si>
+  <si>
+    <t>JAYARAMAN A</t>
+  </si>
+  <si>
     <t>CSCE-121</t>
   </si>
   <si>
@@ -187,6 +193,42 @@
     <t>33.33%</t>
   </si>
   <si>
+    <t>CSCE-313</t>
+  </si>
+  <si>
+    <t>BETTATI R</t>
+  </si>
+  <si>
+    <t>32.14%</t>
+  </si>
+  <si>
+    <t>35.71%</t>
+  </si>
+  <si>
+    <t>10.71%</t>
+  </si>
+  <si>
+    <t>14.29%</t>
+  </si>
+  <si>
+    <t>7.14%</t>
+  </si>
+  <si>
+    <t>CSCE-315</t>
+  </si>
+  <si>
+    <t>DAUGHERITY W</t>
+  </si>
+  <si>
+    <t>62.96%</t>
+  </si>
+  <si>
+    <t>29.63%</t>
+  </si>
+  <si>
+    <t>7.41%</t>
+  </si>
+  <si>
     <t>CSCE-411</t>
   </si>
   <si>
@@ -208,9 +250,6 @@
     <t>CSCE-420</t>
   </si>
   <si>
-    <t>DAUGHERITY W</t>
-  </si>
-  <si>
     <t>6.67%</t>
   </si>
   <si>
@@ -319,6 +358,21 @@
     <t>30.00%</t>
   </si>
   <si>
+    <t>CVEN-400</t>
+  </si>
+  <si>
+    <t>ZOLLINGER D</t>
+  </si>
+  <si>
+    <t>31.25%</t>
+  </si>
+  <si>
+    <t>56.25%</t>
+  </si>
+  <si>
+    <t>6.25%</t>
+  </si>
+  <si>
     <t>CVEN-403</t>
   </si>
   <si>
@@ -415,6 +469,18 @@
     <t>ECEN-314</t>
   </si>
   <si>
+    <t>LIU T</t>
+  </si>
+  <si>
+    <t>68.18%</t>
+  </si>
+  <si>
+    <t>22.73%</t>
+  </si>
+  <si>
+    <t>9.09%</t>
+  </si>
+  <si>
     <t>BHATTACHARYYA S</t>
   </si>
   <si>
@@ -460,9 +526,6 @@
     <t>36.36%</t>
   </si>
   <si>
-    <t>9.09%</t>
-  </si>
-  <si>
     <t>ECEN-485</t>
   </si>
   <si>
@@ -481,9 +544,6 @@
     <t>25.00%</t>
   </si>
   <si>
-    <t>7.14%</t>
-  </si>
-  <si>
     <t>ENDG-407</t>
   </si>
   <si>
@@ -505,9 +565,6 @@
     <t>81.25%</t>
   </si>
   <si>
-    <t>6.25%</t>
-  </si>
-  <si>
     <t>ENGR-112</t>
   </si>
   <si>
@@ -532,13 +589,25 @@
     <t>FELDMAN R</t>
   </si>
   <si>
+    <t>SARIN V</t>
+  </si>
+  <si>
     <t>UGAZ V</t>
   </si>
   <si>
     <t>80.00%</t>
   </si>
   <si>
-    <t>SARIN V</t>
+    <t>ENGR-410</t>
+  </si>
+  <si>
+    <t>LAWRENCE F</t>
+  </si>
+  <si>
+    <t>ENGR-491</t>
+  </si>
+  <si>
+    <t>MILLER S</t>
   </si>
   <si>
     <t>ENTC-181</t>
@@ -553,16 +622,22 @@
     <t>36.11%</t>
   </si>
   <si>
+    <t>ENTC-206</t>
+  </si>
+  <si>
+    <t>FANG G</t>
+  </si>
+  <si>
     <t>IDIS-300</t>
   </si>
   <si>
     <t>LORENZO R</t>
   </si>
   <si>
-    <t>35.29%</t>
-  </si>
-  <si>
-    <t>47.06%</t>
+    <t>29.41%</t>
+  </si>
+  <si>
+    <t>52.94%</t>
   </si>
   <si>
     <t>17.65%</t>
@@ -580,9 +655,6 @@
     <t>63.64%</t>
   </si>
   <si>
-    <t>22.73%</t>
-  </si>
-  <si>
     <t>IDIS-400</t>
   </si>
   <si>
@@ -595,9 +667,6 @@
     <t>IDIS-445</t>
   </si>
   <si>
-    <t>LAWRENCE F</t>
-  </si>
-  <si>
     <t>ISEN-220</t>
   </si>
   <si>
@@ -694,12 +763,6 @@
     <t>BANERJEE D</t>
   </si>
   <si>
-    <t>14.29%</t>
-  </si>
-  <si>
-    <t>35.71%</t>
-  </si>
-  <si>
     <t>MEEN-345</t>
   </si>
   <si>
@@ -718,6 +781,12 @@
     <t>3.70%</t>
   </si>
   <si>
+    <t>MEEN-368</t>
+  </si>
+  <si>
+    <t>HOGAN H</t>
+  </si>
+  <si>
     <t>MEEN-401</t>
   </si>
   <si>
@@ -733,9 +802,6 @@
     <t>64.71%</t>
   </si>
   <si>
-    <t>29.41%</t>
-  </si>
-  <si>
     <t>5.88%</t>
   </si>
   <si>
@@ -763,9 +829,6 @@
     <t>MEEN-475</t>
   </si>
   <si>
-    <t>HOGAN H</t>
-  </si>
-  <si>
     <t>NUEN-302</t>
   </si>
   <si>
@@ -782,6 +845,39 @@
   </si>
   <si>
     <t>AKABANI H</t>
+  </si>
+  <si>
+    <t>PETE-301</t>
+  </si>
+  <si>
+    <t>GILDIN E</t>
+  </si>
+  <si>
+    <t>PETE-485</t>
+  </si>
+  <si>
+    <t>PETE-611</t>
+  </si>
+  <si>
+    <t>MAGGARD J</t>
+  </si>
+  <si>
+    <t>PETE-640</t>
+  </si>
+  <si>
+    <t>MORIDIS G</t>
+  </si>
+  <si>
+    <t>PETE-661</t>
+  </si>
+  <si>
+    <t>SCHUBERT J</t>
+  </si>
+  <si>
+    <t>91.49%</t>
+  </si>
+  <si>
+    <t>2.13%</t>
   </si>
   <si>
     <t>PETE-663</t>
@@ -1139,7 +1235,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H207"/>
+  <dimension ref="A1:H247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1463,19 +1559,19 @@
         <v>39</v>
       </c>
       <c r="C33" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="H33" t="s">
         <v>11</v>
@@ -1483,170 +1579,170 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="B36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C36" t="n">
-        <v>2.963</v>
+        <v>2.88</v>
       </c>
       <c r="D36" t="s">
         <v>42</v>
       </c>
       <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" t="s">
         <v>45</v>
       </c>
-      <c r="F36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" t="s">
-        <v>11</v>
-      </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2.963</v>
+      </c>
+      <c r="D39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" t="s">
         <v>48</v>
-      </c>
-      <c r="C39" t="n">
-        <v>2.625</v>
-      </c>
-      <c r="D39" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" t="s">
-        <v>49</v>
-      </c>
-      <c r="F39" t="s">
-        <v>50</v>
-      </c>
-      <c r="G39" t="s">
-        <v>51</v>
-      </c>
-      <c r="H39" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2.625</v>
+      </c>
+      <c r="D42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" t="s">
         <v>54</v>
-      </c>
-      <c r="C42" t="n">
-        <v>3.333</v>
-      </c>
-      <c r="D42" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" t="s">
-        <v>51</v>
-      </c>
-      <c r="G42" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D45" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" t="s">
         <v>58</v>
       </c>
-      <c r="C45" t="n">
-        <v>2.778</v>
-      </c>
-      <c r="D45" t="s">
-        <v>59</v>
-      </c>
-      <c r="E45" t="s">
-        <v>60</v>
-      </c>
       <c r="F45" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G45" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2.714</v>
+      </c>
+      <c r="D48" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" t="s">
+        <v>63</v>
+      </c>
+      <c r="G48" t="s">
         <v>64</v>
       </c>
-      <c r="C48" t="n">
-        <v>2.667</v>
-      </c>
-      <c r="D48" t="s">
-        <v>40</v>
-      </c>
-      <c r="E48" t="s">
-        <v>41</v>
-      </c>
-      <c r="F48" t="s">
-        <v>41</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>65</v>
-      </c>
-      <c r="H48" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="B51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" t="n">
+        <v>3.407</v>
+      </c>
+      <c r="D51" t="s">
         <v>68</v>
       </c>
-      <c r="C51" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>69</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" t="s">
         <v>70</v>
-      </c>
-      <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1659,202 +1755,202 @@
         <v>72</v>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2.778</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="G54" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="H54" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="B57" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C57" t="n">
+        <v>2.667</v>
+      </c>
+      <c r="D57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>43</v>
+      </c>
+      <c r="G57" t="s">
+        <v>78</v>
+      </c>
+      <c r="H57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="B60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" t="n">
+        <v>3.846</v>
+      </c>
+      <c r="D60" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" t="s">
+        <v>83</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="B63" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" t="n">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="B66" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" t="n">
         <v>2.778</v>
       </c>
-      <c r="D57" t="s">
-        <v>75</v>
-      </c>
-      <c r="E57" t="s">
-        <v>76</v>
-      </c>
-      <c r="F57" t="s">
-        <v>77</v>
-      </c>
-      <c r="G57" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="B58" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" t="n">
+      <c r="D66" t="s">
+        <v>88</v>
+      </c>
+      <c r="E66" t="s">
+        <v>89</v>
+      </c>
+      <c r="F66" t="s">
+        <v>90</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" t="n">
         <v>3.208</v>
       </c>
-      <c r="D58" t="s">
-        <v>80</v>
-      </c>
-      <c r="E58" t="s">
-        <v>81</v>
-      </c>
-      <c r="F58" t="s">
-        <v>51</v>
-      </c>
-      <c r="G58" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="B61" t="s">
+      <c r="D67" t="s">
+        <v>93</v>
+      </c>
+      <c r="E67" t="s">
+        <v>94</v>
+      </c>
+      <c r="F67" t="s">
+        <v>53</v>
+      </c>
+      <c r="G67" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="B70" t="s">
+        <v>96</v>
+      </c>
+      <c r="C70" t="n">
+        <v>3.385</v>
+      </c>
+      <c r="D70" t="s">
+        <v>97</v>
+      </c>
+      <c r="E70" t="s">
+        <v>98</v>
+      </c>
+      <c r="F70" t="s">
         <v>83</v>
       </c>
-      <c r="C61" t="n">
-        <v>3.385</v>
-      </c>
-      <c r="D61" t="s">
-        <v>84</v>
-      </c>
-      <c r="E61" t="s">
-        <v>85</v>
-      </c>
-      <c r="F61" t="s">
-        <v>70</v>
-      </c>
-      <c r="G61" t="s">
-        <v>11</v>
-      </c>
-      <c r="H61" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="B62" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" t="n">
-        <v>3.105</v>
-      </c>
-      <c r="D62" t="s">
-        <v>87</v>
-      </c>
-      <c r="E62" t="s">
-        <v>88</v>
-      </c>
-      <c r="F62" t="s">
-        <v>89</v>
-      </c>
-      <c r="G62" t="s">
-        <v>11</v>
-      </c>
-      <c r="H62" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="B65" t="s">
-        <v>91</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2.207</v>
-      </c>
-      <c r="D65" t="s">
-        <v>92</v>
-      </c>
-      <c r="E65" t="s">
-        <v>93</v>
-      </c>
-      <c r="F65" t="s">
-        <v>94</v>
-      </c>
-      <c r="G65" t="s">
-        <v>95</v>
-      </c>
-      <c r="H65" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="B68" t="s">
-        <v>98</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="D68" t="s">
-        <v>99</v>
-      </c>
-      <c r="E68" t="s">
-        <v>100</v>
-      </c>
-      <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s">
-        <v>11</v>
-      </c>
-      <c r="H68" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" t="s">
-        <v>101</v>
+      <c r="G70" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="B71" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3.105</v>
+      </c>
+      <c r="D71" t="s">
+        <v>100</v>
+      </c>
+      <c r="E71" t="s">
+        <v>101</v>
+      </c>
+      <c r="F71" t="s">
         <v>102</v>
-      </c>
-      <c r="C71" t="n">
-        <v>4</v>
-      </c>
-      <c r="D71" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" t="s">
-        <v>11</v>
       </c>
       <c r="G71" t="s">
         <v>11</v>
@@ -1870,44 +1966,44 @@
     </row>
     <row r="74" spans="1:8">
       <c r="B74" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="C74" t="n">
-        <v>3.462</v>
+        <v>2.207</v>
       </c>
       <c r="D74" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E74" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="G74" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H74" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="B77" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C77" t="n">
-        <v>3.667</v>
+        <v>3.7</v>
       </c>
       <c r="D77" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E77" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="F77" t="s">
         <v>11</v>
@@ -1921,27 +2017,27 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="B80" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>3.125</v>
       </c>
       <c r="D80" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E80" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F80" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G80" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="H80" t="s">
         <v>11</v>
@@ -1949,12 +2045,12 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="B83" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C83" t="n">
         <v>4</v>
@@ -1977,27 +2073,27 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="B86" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3.462</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="H86" t="s">
         <v>11</v>
@@ -2005,24 +2101,24 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="B89" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C89" t="n">
-        <v>3.356</v>
+        <v>3.667</v>
       </c>
       <c r="D89" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E89" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="F89" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="G89" t="s">
         <v>11</v>
@@ -2033,564 +2129,564 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="B92" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C92" t="n">
+        <v>3</v>
+      </c>
+      <c r="D92" t="s">
+        <v>129</v>
+      </c>
+      <c r="E92" t="s">
+        <v>130</v>
+      </c>
+      <c r="F92" t="s">
+        <v>129</v>
+      </c>
+      <c r="G92" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="B95" t="s">
+        <v>128</v>
+      </c>
+      <c r="C95" t="n">
+        <v>4</v>
+      </c>
+      <c r="D95" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="B98" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" t="n">
+        <v>4</v>
+      </c>
+      <c r="D98" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="B101" t="s">
+        <v>134</v>
+      </c>
+      <c r="C101" t="n">
+        <v>3.356</v>
+      </c>
+      <c r="D101" t="s">
+        <v>135</v>
+      </c>
+      <c r="E101" t="s">
+        <v>136</v>
+      </c>
+      <c r="F101" t="s">
+        <v>137</v>
+      </c>
+      <c r="G101" t="s">
+        <v>11</v>
+      </c>
+      <c r="H101" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="B104" t="s">
+        <v>139</v>
+      </c>
+      <c r="C104" t="n">
         <v>3.03</v>
       </c>
-      <c r="D92" t="s">
-        <v>122</v>
-      </c>
-      <c r="E92" t="s">
-        <v>123</v>
-      </c>
-      <c r="F92" t="s">
-        <v>124</v>
-      </c>
-      <c r="G92" t="s">
-        <v>125</v>
-      </c>
-      <c r="H92" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="B93" t="s">
-        <v>126</v>
-      </c>
-      <c r="C93" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D93" t="s">
-        <v>127</v>
-      </c>
-      <c r="E93" t="s">
-        <v>40</v>
-      </c>
-      <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s">
-        <v>11</v>
-      </c>
-      <c r="H93" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="B96" t="s">
-        <v>116</v>
-      </c>
-      <c r="C96" t="n">
-        <v>3.0715</v>
-      </c>
-      <c r="D96" t="s">
-        <v>129</v>
-      </c>
-      <c r="E96" t="s">
-        <v>130</v>
-      </c>
-      <c r="F96" t="s">
-        <v>131</v>
-      </c>
-      <c r="G96" t="s">
-        <v>32</v>
-      </c>
-      <c r="H96" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="B99" t="s">
-        <v>133</v>
-      </c>
-      <c r="C99" t="n">
-        <v>3.231</v>
-      </c>
-      <c r="D99" t="s">
-        <v>130</v>
-      </c>
-      <c r="E99" t="s">
-        <v>111</v>
-      </c>
-      <c r="F99" t="s">
-        <v>32</v>
-      </c>
-      <c r="G99" t="s">
-        <v>32</v>
-      </c>
-      <c r="H99" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="B102" t="s">
-        <v>135</v>
-      </c>
-      <c r="C102" t="n">
-        <v>3.3215</v>
-      </c>
-      <c r="D102" t="s">
-        <v>136</v>
-      </c>
-      <c r="E102" t="s">
-        <v>56</v>
-      </c>
-      <c r="F102" t="s">
-        <v>137</v>
-      </c>
-      <c r="G102" t="s">
-        <v>11</v>
-      </c>
-      <c r="H102" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" t="s">
-        <v>138</v>
+      <c r="D104" t="s">
+        <v>140</v>
+      </c>
+      <c r="E104" t="s">
+        <v>141</v>
+      </c>
+      <c r="F104" t="s">
+        <v>142</v>
+      </c>
+      <c r="G104" t="s">
+        <v>143</v>
+      </c>
+      <c r="H104" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="B105" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C105" t="n">
-        <v>2.4443</v>
+        <v>3.6</v>
       </c>
       <c r="D105" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="E105" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="F105" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="G105" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="H105" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="B108" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C108" t="n">
-        <v>3.444</v>
+        <v>3.0715</v>
       </c>
       <c r="D108" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E108" t="s">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="G108" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H108" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="B111" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C111" t="n">
+        <v>3.591</v>
+      </c>
+      <c r="D111" t="s">
+        <v>152</v>
+      </c>
+      <c r="E111" t="s">
+        <v>153</v>
+      </c>
+      <c r="F111" t="s">
+        <v>154</v>
+      </c>
+      <c r="G111" t="s">
+        <v>11</v>
+      </c>
+      <c r="H111" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="B112" t="s">
+        <v>155</v>
+      </c>
+      <c r="C112" t="n">
+        <v>3.231</v>
+      </c>
+      <c r="D112" t="s">
+        <v>148</v>
+      </c>
+      <c r="E112" t="s">
+        <v>129</v>
+      </c>
+      <c r="F112" t="s">
+        <v>32</v>
+      </c>
+      <c r="G112" t="s">
+        <v>32</v>
+      </c>
+      <c r="H112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="B115" t="s">
+        <v>157</v>
+      </c>
+      <c r="C115" t="n">
+        <v>3.3215</v>
+      </c>
+      <c r="D115" t="s">
+        <v>158</v>
+      </c>
+      <c r="E115" t="s">
+        <v>58</v>
+      </c>
+      <c r="F115" t="s">
+        <v>159</v>
+      </c>
+      <c r="G115" t="s">
+        <v>11</v>
+      </c>
+      <c r="H115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="B118" t="s">
+        <v>161</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2.4443</v>
+      </c>
+      <c r="D118" t="s">
+        <v>91</v>
+      </c>
+      <c r="E118" t="s">
+        <v>162</v>
+      </c>
+      <c r="F118" t="s">
+        <v>163</v>
+      </c>
+      <c r="G118" t="s">
+        <v>91</v>
+      </c>
+      <c r="H118" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="B121" t="s">
+        <v>165</v>
+      </c>
+      <c r="C121" t="n">
+        <v>3.444</v>
+      </c>
+      <c r="D121" t="s">
+        <v>166</v>
+      </c>
+      <c r="E121" t="s">
+        <v>58</v>
+      </c>
+      <c r="F121" t="s">
+        <v>11</v>
+      </c>
+      <c r="G121" t="s">
+        <v>11</v>
+      </c>
+      <c r="H121" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="B124" t="s">
+        <v>155</v>
+      </c>
+      <c r="C124" t="n">
         <v>3.454</v>
       </c>
-      <c r="D111" t="s">
-        <v>146</v>
-      </c>
-      <c r="E111" t="s">
-        <v>147</v>
-      </c>
-      <c r="F111" t="s">
-        <v>148</v>
-      </c>
-      <c r="G111" t="s">
-        <v>11</v>
-      </c>
-      <c r="H111" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="B114" t="s">
-        <v>150</v>
-      </c>
-      <c r="C114" t="n">
+      <c r="D124" t="s">
+        <v>168</v>
+      </c>
+      <c r="E124" t="s">
+        <v>169</v>
+      </c>
+      <c r="F124" t="s">
+        <v>154</v>
+      </c>
+      <c r="G124" t="s">
+        <v>11</v>
+      </c>
+      <c r="H124" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="B127" t="s">
+        <v>171</v>
+      </c>
+      <c r="C127" t="n">
         <v>4</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D127" t="s">
         <v>10</v>
       </c>
-      <c r="E114" t="s">
-        <v>11</v>
-      </c>
-      <c r="F114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" t="s">
-        <v>11</v>
-      </c>
-      <c r="H114" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="B117" t="s">
-        <v>152</v>
-      </c>
-      <c r="C117" t="n">
-        <v>3.607</v>
-      </c>
-      <c r="D117" t="s">
-        <v>153</v>
-      </c>
-      <c r="E117" t="s">
-        <v>154</v>
-      </c>
-      <c r="F117" t="s">
-        <v>155</v>
-      </c>
-      <c r="G117" t="s">
-        <v>11</v>
-      </c>
-      <c r="H117" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="B120" t="s">
-        <v>157</v>
-      </c>
-      <c r="C120" t="n">
-        <v>3.971</v>
-      </c>
-      <c r="D120" t="s">
-        <v>158</v>
-      </c>
-      <c r="E120" t="s">
-        <v>159</v>
-      </c>
-      <c r="F120" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" t="s">
-        <v>11</v>
-      </c>
-      <c r="H120" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="B123" t="s">
-        <v>161</v>
-      </c>
-      <c r="C123" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="D123" t="s">
-        <v>162</v>
-      </c>
-      <c r="E123" t="s">
-        <v>14</v>
-      </c>
-      <c r="F123" t="s">
-        <v>163</v>
-      </c>
-      <c r="G123" t="s">
-        <v>11</v>
-      </c>
-      <c r="H123" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="B126" t="s">
-        <v>165</v>
-      </c>
-      <c r="C126" t="n">
-        <v>3.391</v>
-      </c>
-      <c r="D126" t="s">
-        <v>166</v>
-      </c>
-      <c r="E126" t="s">
-        <v>167</v>
-      </c>
-      <c r="F126" t="s">
-        <v>168</v>
-      </c>
-      <c r="G126" t="s">
-        <v>169</v>
-      </c>
-      <c r="H126" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" t="s">
-        <v>170</v>
+      <c r="E127" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" t="s">
+        <v>11</v>
+      </c>
+      <c r="G127" t="s">
+        <v>11</v>
+      </c>
+      <c r="H127" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="1:8">
-      <c r="B129" t="s">
-        <v>150</v>
-      </c>
-      <c r="C129" t="n">
-        <v>4</v>
-      </c>
-      <c r="D129" t="s">
-        <v>10</v>
-      </c>
-      <c r="E129" t="s">
-        <v>11</v>
-      </c>
-      <c r="F129" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" t="s">
-        <v>11</v>
-      </c>
-      <c r="H129" t="s">
-        <v>11</v>
+      <c r="A129" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="B130" t="s">
+        <v>173</v>
+      </c>
+      <c r="C130" t="n">
+        <v>3.607</v>
+      </c>
+      <c r="D130" t="s">
+        <v>174</v>
+      </c>
+      <c r="E130" t="s">
+        <v>175</v>
+      </c>
+      <c r="F130" t="s">
+        <v>65</v>
+      </c>
+      <c r="G130" t="s">
+        <v>11</v>
+      </c>
+      <c r="H130" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="B133" t="s">
+        <v>177</v>
+      </c>
+      <c r="C133" t="n">
+        <v>3.971</v>
+      </c>
+      <c r="D133" t="s">
+        <v>178</v>
+      </c>
+      <c r="E133" t="s">
+        <v>179</v>
+      </c>
+      <c r="F133" t="s">
+        <v>11</v>
+      </c>
+      <c r="G133" t="s">
+        <v>11</v>
+      </c>
+      <c r="H133" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="B136" t="s">
+        <v>181</v>
+      </c>
+      <c r="C136" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D136" t="s">
+        <v>182</v>
+      </c>
+      <c r="E136" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" t="s">
+        <v>118</v>
+      </c>
+      <c r="G136" t="s">
+        <v>11</v>
+      </c>
+      <c r="H136" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="B139" t="s">
+        <v>184</v>
+      </c>
+      <c r="C139" t="n">
+        <v>3.391</v>
+      </c>
+      <c r="D139" t="s">
+        <v>185</v>
+      </c>
+      <c r="E139" t="s">
+        <v>186</v>
+      </c>
+      <c r="F139" t="s">
+        <v>187</v>
+      </c>
+      <c r="G139" t="s">
+        <v>188</v>
+      </c>
+      <c r="H139" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="B142" t="s">
         <v>171</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C142" t="n">
         <v>4</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D142" t="s">
         <v>10</v>
       </c>
-      <c r="E130" t="s">
-        <v>11</v>
-      </c>
-      <c r="F130" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" t="s">
-        <v>11</v>
-      </c>
-      <c r="H130" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="B131" t="s">
-        <v>172</v>
-      </c>
-      <c r="C131" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D131" t="s">
-        <v>173</v>
-      </c>
-      <c r="E131" t="s">
-        <v>11</v>
-      </c>
-      <c r="F131" t="s">
-        <v>41</v>
-      </c>
-      <c r="G131" t="s">
-        <v>11</v>
-      </c>
-      <c r="H131" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="B132" t="s">
-        <v>174</v>
-      </c>
-      <c r="C132" t="n">
+      <c r="E142" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" t="s">
+        <v>11</v>
+      </c>
+      <c r="G142" t="s">
+        <v>11</v>
+      </c>
+      <c r="H142" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="B143" t="s">
+        <v>190</v>
+      </c>
+      <c r="C143" t="n">
         <v>4</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D143" t="s">
         <v>10</v>
       </c>
-      <c r="E132" t="s">
-        <v>11</v>
-      </c>
-      <c r="F132" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" t="s">
-        <v>11</v>
-      </c>
-      <c r="H132" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="B135" t="s">
-        <v>176</v>
-      </c>
-      <c r="C135" t="n">
-        <v>2.4523</v>
-      </c>
-      <c r="D135" t="s">
-        <v>75</v>
-      </c>
-      <c r="E135" t="s">
-        <v>177</v>
-      </c>
-      <c r="F135" t="s">
-        <v>178</v>
-      </c>
-      <c r="G135" t="s">
-        <v>61</v>
-      </c>
-      <c r="H135" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="B138" t="s">
-        <v>180</v>
-      </c>
-      <c r="C138" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="D138" t="s">
-        <v>181</v>
-      </c>
-      <c r="E138" t="s">
-        <v>182</v>
-      </c>
-      <c r="F138" t="s">
-        <v>183</v>
-      </c>
-      <c r="G138" t="s">
-        <v>11</v>
-      </c>
-      <c r="H138" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="B141" t="s">
-        <v>185</v>
-      </c>
-      <c r="C141" t="n">
-        <v>2.941</v>
-      </c>
-      <c r="D141" t="s">
-        <v>186</v>
-      </c>
-      <c r="E141" t="s">
-        <v>187</v>
-      </c>
-      <c r="F141" t="s">
-        <v>188</v>
-      </c>
-      <c r="G141" t="s">
-        <v>11</v>
-      </c>
-      <c r="H141" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="A143" t="s">
-        <v>189</v>
+      <c r="E143" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" t="s">
+        <v>11</v>
+      </c>
+      <c r="G143" t="s">
+        <v>11</v>
+      </c>
+      <c r="H143" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="B144" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C144" t="n">
-        <v>2.969</v>
+        <v>4</v>
       </c>
       <c r="D144" t="s">
-        <v>190</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="G144" t="s">
         <v>11</v>
@@ -2599,540 +2695,540 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
-      <c r="A146" t="s">
+    <row r="145" spans="1:8">
+      <c r="B145" t="s">
         <v>192</v>
       </c>
+      <c r="C145" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D145" t="s">
+        <v>193</v>
+      </c>
+      <c r="E145" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" t="s">
+        <v>43</v>
+      </c>
+      <c r="G145" t="s">
+        <v>11</v>
+      </c>
+      <c r="H145" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="147" spans="1:8">
-      <c r="B147" t="s">
-        <v>193</v>
-      </c>
-      <c r="C147" t="n">
+      <c r="A147" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="B148" t="s">
+        <v>195</v>
+      </c>
+      <c r="C148" t="n">
         <v>4</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D148" t="s">
         <v>10</v>
       </c>
-      <c r="E147" t="s">
-        <v>11</v>
-      </c>
-      <c r="F147" t="s">
-        <v>11</v>
-      </c>
-      <c r="G147" t="s">
-        <v>11</v>
-      </c>
-      <c r="H147" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="A149" t="s">
-        <v>194</v>
+      <c r="E148" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148" t="s">
+        <v>11</v>
+      </c>
+      <c r="G148" t="s">
+        <v>11</v>
+      </c>
+      <c r="H148" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="150" spans="1:8">
-      <c r="B150" t="s">
-        <v>195</v>
-      </c>
-      <c r="C150" t="n">
-        <v>2.857</v>
-      </c>
-      <c r="D150" t="s">
-        <v>56</v>
-      </c>
-      <c r="E150" t="s">
+      <c r="A150" t="s">
         <v>196</v>
       </c>
-      <c r="F150" t="s">
+    </row>
+    <row r="151" spans="1:8">
+      <c r="B151" t="s">
         <v>197</v>
       </c>
-      <c r="G150" t="s">
+      <c r="C151" t="n">
+        <v>4</v>
+      </c>
+      <c r="D151" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" t="s">
+        <v>11</v>
+      </c>
+      <c r="G151" t="s">
+        <v>11</v>
+      </c>
+      <c r="H151" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" t="s">
         <v>198</v>
       </c>
-      <c r="H150" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="A152" t="s">
+    </row>
+    <row r="154" spans="1:8">
+      <c r="B154" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="B153" t="s">
+      <c r="C154" t="n">
+        <v>2.4523</v>
+      </c>
+      <c r="D154" t="s">
+        <v>88</v>
+      </c>
+      <c r="E154" t="s">
         <v>200</v>
       </c>
-      <c r="C153" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="D153" t="s">
+      <c r="F154" t="s">
         <v>201</v>
       </c>
-      <c r="E153" t="s">
+      <c r="G154" t="s">
+        <v>75</v>
+      </c>
+      <c r="H154" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" t="s">
         <v>202</v>
       </c>
-      <c r="F153" t="s">
-        <v>201</v>
-      </c>
-      <c r="G153" t="s">
+    </row>
+    <row r="157" spans="1:8">
+      <c r="B157" t="s">
         <v>203</v>
       </c>
-      <c r="H153" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="A155" t="s">
+      <c r="C157" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D157" t="s">
+        <v>102</v>
+      </c>
+      <c r="E157" t="s">
+        <v>101</v>
+      </c>
+      <c r="F157" t="s">
+        <v>100</v>
+      </c>
+      <c r="G157" t="s">
+        <v>11</v>
+      </c>
+      <c r="H157" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
-      <c r="B156" t="s">
+    <row r="160" spans="1:8">
+      <c r="B160" t="s">
         <v>205</v>
       </c>
-      <c r="C156" t="n">
-        <v>2.615</v>
-      </c>
-      <c r="D156" t="s">
-        <v>70</v>
-      </c>
-      <c r="E156" t="s">
+      <c r="C160" t="n">
+        <v>3.1175</v>
+      </c>
+      <c r="D160" t="s">
         <v>206</v>
       </c>
-      <c r="F156" t="s">
-        <v>85</v>
-      </c>
-      <c r="G156" t="s">
-        <v>131</v>
-      </c>
-      <c r="H156" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
-      <c r="A158" t="s">
+      <c r="E160" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="B159" t="s">
+      <c r="F160" t="s">
         <v>208</v>
       </c>
-      <c r="C159" t="n">
-        <v>3.5165</v>
-      </c>
-      <c r="D159" t="s">
-        <v>55</v>
-      </c>
-      <c r="E159" t="s">
-        <v>55</v>
-      </c>
-      <c r="F159" t="s">
-        <v>11</v>
-      </c>
-      <c r="G159" t="s">
-        <v>11</v>
-      </c>
-      <c r="H159" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="A161" t="s">
+      <c r="G160" t="s">
+        <v>11</v>
+      </c>
+      <c r="H160" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
-      <c r="B162" t="s">
+    <row r="163" spans="1:8">
+      <c r="B163" t="s">
         <v>210</v>
       </c>
-      <c r="C162" t="n">
-        <v>2.988</v>
-      </c>
-      <c r="D162" t="s">
+      <c r="C163" t="n">
+        <v>2.941</v>
+      </c>
+      <c r="D163" t="s">
         <v>211</v>
       </c>
-      <c r="E162" t="s">
+      <c r="E163" t="s">
         <v>212</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F163" t="s">
+        <v>153</v>
+      </c>
+      <c r="G163" t="s">
+        <v>11</v>
+      </c>
+      <c r="H163" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" t="s">
         <v>213</v>
-      </c>
-      <c r="G162" t="s">
-        <v>214</v>
-      </c>
-      <c r="H162" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
-      <c r="A164" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="B165" t="s">
-        <v>217</v>
-      </c>
-      <c r="C165" t="n">
-        <v>2.717</v>
-      </c>
-      <c r="D165" t="s">
-        <v>218</v>
-      </c>
-      <c r="E165" t="s">
-        <v>218</v>
-      </c>
-      <c r="F165" t="s">
-        <v>219</v>
-      </c>
-      <c r="G165" t="s">
-        <v>220</v>
-      </c>
-      <c r="H165" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="B166" t="s">
+        <v>205</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2.969</v>
+      </c>
+      <c r="D166" t="s">
+        <v>214</v>
+      </c>
+      <c r="E166" t="s">
+        <v>168</v>
+      </c>
+      <c r="F166" t="s">
+        <v>215</v>
+      </c>
+      <c r="G166" t="s">
+        <v>11</v>
+      </c>
+      <c r="H166" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="B169" t="s">
+        <v>195</v>
+      </c>
+      <c r="C169" t="n">
+        <v>4</v>
+      </c>
+      <c r="D169" t="s">
+        <v>10</v>
+      </c>
+      <c r="E169" t="s">
+        <v>11</v>
+      </c>
+      <c r="F169" t="s">
+        <v>11</v>
+      </c>
+      <c r="G169" t="s">
+        <v>11</v>
+      </c>
+      <c r="H169" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="B172" t="s">
+        <v>218</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2.857</v>
+      </c>
+      <c r="D172" t="s">
+        <v>58</v>
+      </c>
+      <c r="E172" t="s">
+        <v>219</v>
+      </c>
+      <c r="F172" t="s">
+        <v>220</v>
+      </c>
+      <c r="G172" t="s">
         <v>221</v>
       </c>
-      <c r="C166" t="n">
-        <v>2.477</v>
-      </c>
-      <c r="D166" t="s">
-        <v>188</v>
-      </c>
-      <c r="E166" t="s">
-        <v>188</v>
-      </c>
-      <c r="F166" t="s">
+      <c r="H172" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" t="s">
         <v>222</v>
       </c>
-      <c r="G166" t="s">
+    </row>
+    <row r="175" spans="1:8">
+      <c r="B175" t="s">
         <v>223</v>
       </c>
-      <c r="H166" t="s">
+      <c r="C175" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="D175" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="B167" t="s">
+      <c r="E175" t="s">
         <v>225</v>
       </c>
-      <c r="C167" t="n">
-        <v>1.786</v>
-      </c>
-      <c r="D167" t="s">
-        <v>155</v>
-      </c>
-      <c r="E167" t="s">
+      <c r="F175" t="s">
+        <v>224</v>
+      </c>
+      <c r="G175" t="s">
         <v>226</v>
       </c>
-      <c r="F167" t="s">
+      <c r="H175" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" t="s">
         <v>227</v>
       </c>
-      <c r="G167" t="s">
-        <v>227</v>
-      </c>
-      <c r="H167" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="A169" t="s">
+    </row>
+    <row r="178" spans="1:8">
+      <c r="B178" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="170" spans="1:8">
-      <c r="B170" t="s">
+      <c r="C178" t="n">
+        <v>2.615</v>
+      </c>
+      <c r="D178" t="s">
+        <v>83</v>
+      </c>
+      <c r="E178" t="s">
         <v>229</v>
       </c>
-      <c r="C170" t="n">
-        <v>4</v>
-      </c>
-      <c r="D170" t="s">
-        <v>10</v>
-      </c>
-      <c r="E170" t="s">
-        <v>11</v>
-      </c>
-      <c r="F170" t="s">
-        <v>11</v>
-      </c>
-      <c r="G170" t="s">
-        <v>11</v>
-      </c>
-      <c r="H170" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
-      <c r="A172" t="s">
+      <c r="F178" t="s">
+        <v>98</v>
+      </c>
+      <c r="G178" t="s">
+        <v>149</v>
+      </c>
+      <c r="H178" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
-      <c r="B173" t="s">
+    <row r="181" spans="1:8">
+      <c r="B181" t="s">
         <v>231</v>
       </c>
-      <c r="C173" t="n">
-        <v>3.518</v>
-      </c>
-      <c r="D173" t="s">
-        <v>27</v>
-      </c>
-      <c r="E173" t="s">
+      <c r="C181" t="n">
+        <v>3.5165</v>
+      </c>
+      <c r="D181" t="s">
+        <v>57</v>
+      </c>
+      <c r="E181" t="s">
+        <v>57</v>
+      </c>
+      <c r="F181" t="s">
+        <v>11</v>
+      </c>
+      <c r="G181" t="s">
+        <v>11</v>
+      </c>
+      <c r="H181" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" t="s">
         <v>232</v>
       </c>
-      <c r="F173" t="s">
+    </row>
+    <row r="184" spans="1:8">
+      <c r="B184" t="s">
         <v>233</v>
       </c>
-      <c r="G173" t="s">
-        <v>11</v>
-      </c>
-      <c r="H173" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
-      <c r="A175" t="s">
+      <c r="C184" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="D184" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="176" spans="1:8">
-      <c r="B176" t="s">
+      <c r="E184" t="s">
         <v>235</v>
       </c>
-      <c r="C176" t="n">
-        <v>4</v>
-      </c>
-      <c r="D176" t="s">
-        <v>10</v>
-      </c>
-      <c r="E176" t="s">
-        <v>11</v>
-      </c>
-      <c r="F176" t="s">
-        <v>11</v>
-      </c>
-      <c r="G176" t="s">
-        <v>11</v>
-      </c>
-      <c r="H176" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="A178" t="s">
+      <c r="F184" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="179" spans="1:8">
-      <c r="B179" t="s">
+      <c r="G184" t="s">
         <v>237</v>
       </c>
-      <c r="C179" t="n">
-        <v>3.588</v>
-      </c>
-      <c r="D179" t="s">
+      <c r="H184" t="s">
         <v>238</v>
       </c>
-      <c r="E179" t="s">
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" t="s">
         <v>239</v>
       </c>
-      <c r="F179" t="s">
+    </row>
+    <row r="187" spans="1:8">
+      <c r="B187" t="s">
         <v>240</v>
       </c>
-      <c r="G179" t="s">
-        <v>11</v>
-      </c>
-      <c r="H179" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
-      <c r="A181" t="s">
+      <c r="C187" t="n">
+        <v>2.717</v>
+      </c>
+      <c r="D187" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="182" spans="1:8">
-      <c r="B182" t="s">
-        <v>231</v>
-      </c>
-      <c r="C182" t="n">
-        <v>3.826</v>
-      </c>
-      <c r="D182" t="s">
+      <c r="E187" t="s">
+        <v>241</v>
+      </c>
+      <c r="F187" t="s">
         <v>242</v>
       </c>
-      <c r="E182" t="s">
+      <c r="G187" t="s">
         <v>243</v>
       </c>
-      <c r="F182" t="s">
-        <v>11</v>
-      </c>
-      <c r="G182" t="s">
-        <v>11</v>
-      </c>
-      <c r="H182" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
-      <c r="A184" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
-      <c r="B185" t="s">
-        <v>245</v>
-      </c>
-      <c r="C185" t="n">
-        <v>3.542</v>
-      </c>
-      <c r="D185" t="s">
-        <v>108</v>
-      </c>
-      <c r="E185" t="s">
-        <v>50</v>
-      </c>
-      <c r="F185" t="s">
-        <v>14</v>
-      </c>
-      <c r="G185" t="s">
-        <v>11</v>
-      </c>
-      <c r="H185" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
-      <c r="A187" t="s">
-        <v>246</v>
+      <c r="H187" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="B188" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="C188" t="n">
-        <v>3.375</v>
+        <v>2.477</v>
       </c>
       <c r="D188" t="s">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="E188" t="s">
+        <v>153</v>
+      </c>
+      <c r="F188" t="s">
+        <v>245</v>
+      </c>
+      <c r="G188" t="s">
+        <v>246</v>
+      </c>
+      <c r="H188" t="s">
         <v>247</v>
       </c>
-      <c r="F188" t="s">
-        <v>11</v>
-      </c>
-      <c r="G188" t="s">
-        <v>11</v>
-      </c>
-      <c r="H188" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
-      <c r="A190" t="s">
+    </row>
+    <row r="189" spans="1:8">
+      <c r="B189" t="s">
         <v>248</v>
       </c>
+      <c r="C189" t="n">
+        <v>1.786</v>
+      </c>
+      <c r="D189" t="s">
+        <v>65</v>
+      </c>
+      <c r="E189" t="s">
+        <v>64</v>
+      </c>
+      <c r="F189" t="s">
+        <v>62</v>
+      </c>
+      <c r="G189" t="s">
+        <v>62</v>
+      </c>
+      <c r="H189" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="191" spans="1:8">
-      <c r="B191" t="s">
+      <c r="A191" t="s">
         <v>249</v>
       </c>
-      <c r="C191" t="n">
+    </row>
+    <row r="192" spans="1:8">
+      <c r="B192" t="s">
+        <v>250</v>
+      </c>
+      <c r="C192" t="n">
         <v>4</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D192" t="s">
         <v>10</v>
       </c>
-      <c r="E191" t="s">
-        <v>11</v>
-      </c>
-      <c r="F191" t="s">
-        <v>11</v>
-      </c>
-      <c r="G191" t="s">
-        <v>11</v>
-      </c>
-      <c r="H191" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
-      <c r="A193" t="s">
-        <v>250</v>
+      <c r="E192" t="s">
+        <v>11</v>
+      </c>
+      <c r="F192" t="s">
+        <v>11</v>
+      </c>
+      <c r="G192" t="s">
+        <v>11</v>
+      </c>
+      <c r="H192" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="194" spans="1:8">
-      <c r="B194" t="s">
+      <c r="A194" t="s">
         <v>251</v>
       </c>
-      <c r="C194" t="n">
-        <v>3</v>
-      </c>
-      <c r="D194" t="s">
-        <v>227</v>
-      </c>
-      <c r="E194" t="s">
+    </row>
+    <row r="195" spans="1:8">
+      <c r="B195" t="s">
         <v>252</v>
       </c>
-      <c r="F194" t="s">
-        <v>227</v>
-      </c>
-      <c r="G194" t="s">
-        <v>11</v>
-      </c>
-      <c r="H194" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
-      <c r="A196" t="s">
+      <c r="C195" t="n">
+        <v>3.518</v>
+      </c>
+      <c r="D195" t="s">
+        <v>27</v>
+      </c>
+      <c r="E195" t="s">
         <v>253</v>
       </c>
+      <c r="F195" t="s">
+        <v>254</v>
+      </c>
+      <c r="G195" t="s">
+        <v>11</v>
+      </c>
+      <c r="H195" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="197" spans="1:8">
-      <c r="B197" t="s">
-        <v>254</v>
-      </c>
-      <c r="C197" t="n">
-        <v>4</v>
-      </c>
-      <c r="D197" t="s">
-        <v>10</v>
-      </c>
-      <c r="E197" t="s">
-        <v>11</v>
-      </c>
-      <c r="F197" t="s">
-        <v>11</v>
-      </c>
-      <c r="G197" t="s">
-        <v>11</v>
-      </c>
-      <c r="H197" t="s">
-        <v>11</v>
+      <c r="A197" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="B198" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C198" t="n">
-        <v>3.556</v>
+        <v>3.6</v>
       </c>
       <c r="D198" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="E198" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F198" t="s">
         <v>11</v>
@@ -3146,24 +3242,24 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="B201" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C201" t="n">
-        <v>3.255</v>
+        <v>4</v>
       </c>
       <c r="D201" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="G201" t="s">
         <v>11</v>
@@ -3182,16 +3278,16 @@
         <v>260</v>
       </c>
       <c r="C204" t="n">
-        <v>3.154</v>
+        <v>3.588</v>
       </c>
       <c r="D204" t="s">
-        <v>85</v>
+        <v>261</v>
       </c>
       <c r="E204" t="s">
-        <v>84</v>
+        <v>206</v>
       </c>
       <c r="F204" t="s">
-        <v>70</v>
+        <v>262</v>
       </c>
       <c r="G204" t="s">
         <v>11</v>
@@ -3202,29 +3298,416 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="B207" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C207" t="n">
+        <v>3.826</v>
+      </c>
+      <c r="D207" t="s">
+        <v>264</v>
+      </c>
+      <c r="E207" t="s">
+        <v>265</v>
+      </c>
+      <c r="F207" t="s">
+        <v>11</v>
+      </c>
+      <c r="G207" t="s">
+        <v>11</v>
+      </c>
+      <c r="H207" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="B210" t="s">
+        <v>267</v>
+      </c>
+      <c r="C210" t="n">
+        <v>3.542</v>
+      </c>
+      <c r="D210" t="s">
+        <v>126</v>
+      </c>
+      <c r="E210" t="s">
+        <v>52</v>
+      </c>
+      <c r="F210" t="s">
+        <v>14</v>
+      </c>
+      <c r="G210" t="s">
+        <v>11</v>
+      </c>
+      <c r="H210" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="B213" t="s">
+        <v>250</v>
+      </c>
+      <c r="C213" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="D213" t="s">
+        <v>93</v>
+      </c>
+      <c r="E213" t="s">
+        <v>269</v>
+      </c>
+      <c r="F213" t="s">
+        <v>11</v>
+      </c>
+      <c r="G213" t="s">
+        <v>11</v>
+      </c>
+      <c r="H213" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="B216" t="s">
+        <v>256</v>
+      </c>
+      <c r="C216" t="n">
         <v>4</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D216" t="s">
         <v>10</v>
       </c>
-      <c r="E207" t="s">
-        <v>11</v>
-      </c>
-      <c r="F207" t="s">
-        <v>11</v>
-      </c>
-      <c r="G207" t="s">
-        <v>11</v>
-      </c>
-      <c r="H207" t="s">
+      <c r="E216" t="s">
+        <v>11</v>
+      </c>
+      <c r="F216" t="s">
+        <v>11</v>
+      </c>
+      <c r="G216" t="s">
+        <v>11</v>
+      </c>
+      <c r="H216" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="B219" t="s">
+        <v>272</v>
+      </c>
+      <c r="C219" t="n">
+        <v>3</v>
+      </c>
+      <c r="D219" t="s">
+        <v>62</v>
+      </c>
+      <c r="E219" t="s">
+        <v>273</v>
+      </c>
+      <c r="F219" t="s">
+        <v>62</v>
+      </c>
+      <c r="G219" t="s">
+        <v>11</v>
+      </c>
+      <c r="H219" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="B222" t="s">
+        <v>275</v>
+      </c>
+      <c r="C222" t="n">
+        <v>4</v>
+      </c>
+      <c r="D222" t="s">
+        <v>10</v>
+      </c>
+      <c r="E222" t="s">
+        <v>11</v>
+      </c>
+      <c r="F222" t="s">
+        <v>11</v>
+      </c>
+      <c r="G222" t="s">
+        <v>11</v>
+      </c>
+      <c r="H222" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="B223" t="s">
+        <v>276</v>
+      </c>
+      <c r="C223" t="n">
+        <v>3.556</v>
+      </c>
+      <c r="D223" t="s">
+        <v>27</v>
+      </c>
+      <c r="E223" t="s">
+        <v>28</v>
+      </c>
+      <c r="F223" t="s">
+        <v>11</v>
+      </c>
+      <c r="G223" t="s">
+        <v>11</v>
+      </c>
+      <c r="H223" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="B226" t="s">
+        <v>278</v>
+      </c>
+      <c r="C226" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D226" t="s">
+        <v>269</v>
+      </c>
+      <c r="E226" t="s">
+        <v>175</v>
+      </c>
+      <c r="F226" t="s">
+        <v>14</v>
+      </c>
+      <c r="G226" t="s">
+        <v>11</v>
+      </c>
+      <c r="H226" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="B229" t="s">
+        <v>278</v>
+      </c>
+      <c r="C229" t="n">
+        <v>4</v>
+      </c>
+      <c r="D229" t="s">
+        <v>10</v>
+      </c>
+      <c r="E229" t="s">
+        <v>11</v>
+      </c>
+      <c r="F229" t="s">
+        <v>11</v>
+      </c>
+      <c r="G229" t="s">
+        <v>11</v>
+      </c>
+      <c r="H229" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="B232" t="s">
+        <v>281</v>
+      </c>
+      <c r="C232" t="n">
+        <v>3.8255</v>
+      </c>
+      <c r="D232" t="s">
+        <v>264</v>
+      </c>
+      <c r="E232" t="s">
+        <v>265</v>
+      </c>
+      <c r="F232" t="s">
+        <v>11</v>
+      </c>
+      <c r="G232" t="s">
+        <v>11</v>
+      </c>
+      <c r="H232" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="B235" t="s">
+        <v>283</v>
+      </c>
+      <c r="C235" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="D235" t="s">
+        <v>13</v>
+      </c>
+      <c r="E235" t="s">
+        <v>14</v>
+      </c>
+      <c r="F235" t="s">
+        <v>11</v>
+      </c>
+      <c r="G235" t="s">
+        <v>11</v>
+      </c>
+      <c r="H235" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="B238" t="s">
+        <v>285</v>
+      </c>
+      <c r="C238" t="n">
+        <v>3.6343</v>
+      </c>
+      <c r="D238" t="s">
+        <v>286</v>
+      </c>
+      <c r="E238" t="s">
+        <v>287</v>
+      </c>
+      <c r="F238" t="s">
+        <v>287</v>
+      </c>
+      <c r="G238" t="s">
+        <v>287</v>
+      </c>
+      <c r="H238" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="B241" t="s">
+        <v>289</v>
+      </c>
+      <c r="C241" t="n">
+        <v>3.255</v>
+      </c>
+      <c r="D241" t="s">
+        <v>98</v>
+      </c>
+      <c r="E241" t="s">
+        <v>126</v>
+      </c>
+      <c r="F241" t="s">
+        <v>290</v>
+      </c>
+      <c r="G241" t="s">
+        <v>11</v>
+      </c>
+      <c r="H241" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="B244" t="s">
+        <v>292</v>
+      </c>
+      <c r="C244" t="n">
+        <v>3.154</v>
+      </c>
+      <c r="D244" t="s">
+        <v>98</v>
+      </c>
+      <c r="E244" t="s">
+        <v>97</v>
+      </c>
+      <c r="F244" t="s">
+        <v>83</v>
+      </c>
+      <c r="G244" t="s">
+        <v>11</v>
+      </c>
+      <c r="H244" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="B247" t="s">
+        <v>294</v>
+      </c>
+      <c r="C247" t="n">
+        <v>4</v>
+      </c>
+      <c r="D247" t="s">
+        <v>10</v>
+      </c>
+      <c r="E247" t="s">
+        <v>11</v>
+      </c>
+      <c r="F247" t="s">
+        <v>11</v>
+      </c>
+      <c r="G247" t="s">
+        <v>11</v>
+      </c>
+      <c r="H247" t="s">
         <v>11</v>
       </c>
     </row>

--- a/GradeDistributionsDB/Summer2013/Output/Summer2013 EN.xlsx
+++ b/GradeDistributionsDB/Summer2013/Output/Summer2013 EN.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="301">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>AERO-213</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>56.52%</t>
   </si>
   <si>
+    <t>4.17%</t>
+  </si>
+  <si>
     <t>CHEN-414</t>
   </si>
   <si>
@@ -130,6 +136,9 @@
     <t>23.26%</t>
   </si>
   <si>
+    <t>4.44%</t>
+  </si>
+  <si>
     <t>CHEN-489</t>
   </si>
   <si>
@@ -178,9 +187,6 @@
     <t>16.67%</t>
   </si>
   <si>
-    <t>4.17%</t>
-  </si>
-  <si>
     <t>CSCE-222</t>
   </si>
   <si>
@@ -289,9 +295,6 @@
     <t>31.11%</t>
   </si>
   <si>
-    <t>4.44%</t>
-  </si>
-  <si>
     <t>BEASON W</t>
   </si>
   <si>
@@ -301,6 +304,9 @@
     <t>45.83%</t>
   </si>
   <si>
+    <t>2.04%</t>
+  </si>
+  <si>
     <t>CVEN-339</t>
   </si>
   <si>
@@ -346,6 +352,9 @@
     <t>6.90%</t>
   </si>
   <si>
+    <t>12.12%</t>
+  </si>
+  <si>
     <t>CVEN-365</t>
   </si>
   <si>
@@ -664,6 +673,9 @@
     <t>24.24%</t>
   </si>
   <si>
+    <t>5.71%</t>
+  </si>
+  <si>
     <t>IDIS-445</t>
   </si>
   <si>
@@ -682,6 +694,9 @@
     <t>4.76%</t>
   </si>
   <si>
+    <t>8.70%</t>
+  </si>
+  <si>
     <t>ISEN-315</t>
   </si>
   <si>
@@ -731,6 +746,9 @@
   </si>
   <si>
     <t>2.44%</t>
+  </si>
+  <si>
+    <t>3.53%</t>
   </si>
   <si>
     <t>MEEN-315</t>
@@ -936,12 +954,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1235,15 +1252,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H247"/>
+  <dimension ref="A1:I247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1268,2447 +1285,2717 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" t="s">
-        <v>9</v>
       </c>
       <c r="C6" t="n">
         <v>3.875</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" t="s">
         <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" t="s">
-        <v>9</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" t="n">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" t="n">
         <v>2.652</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="B24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C24" t="n">
         <v>3.556</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="B27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C27" t="n">
         <v>3.923</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="B30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C30" t="n">
         <v>3.209</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="B33" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C33" t="n">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C36" t="n">
         <v>2.88</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="B39" t="s">
         <v>44</v>
-      </c>
-      <c r="G36" t="s">
-        <v>45</v>
-      </c>
-      <c r="H36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="B39" t="s">
-        <v>41</v>
       </c>
       <c r="C39" t="n">
         <v>2.963</v>
       </c>
       <c r="D39" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E39" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="B42" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C42" t="n">
         <v>2.625</v>
       </c>
       <c r="D42" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E42" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F42" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="B45" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C45" t="n">
         <v>3.333</v>
       </c>
       <c r="D45" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E45" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F45" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="B48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C48" t="n">
         <v>2.714</v>
       </c>
       <c r="D48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F48" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G48" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H48" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="B51" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C51" t="n">
         <v>3.407</v>
       </c>
       <c r="D51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E51" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H51" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="B54" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C54" t="n">
         <v>2.778</v>
       </c>
       <c r="D54" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E54" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F54" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G54" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H54" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="B57" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C57" t="n">
         <v>2.667</v>
       </c>
       <c r="D57" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F57" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G57" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="B60" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C60" t="n">
         <v>3.846</v>
       </c>
       <c r="D60" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E60" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H60" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="B63" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C63" t="n">
         <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H63" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="B66" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C66" t="n">
         <v>2.778</v>
       </c>
       <c r="D66" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F66" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="B67" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C67" t="n">
         <v>3.208</v>
       </c>
       <c r="D67" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E67" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F67" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="B70" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C70" t="n">
         <v>3.385</v>
       </c>
       <c r="D70" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E70" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F70" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H70" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="B71" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C71" t="n">
         <v>3.105</v>
       </c>
       <c r="D71" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E71" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F71" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H71" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="B74" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C74" t="n">
         <v>2.207</v>
       </c>
       <c r="D74" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E74" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F74" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G74" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H74" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="B77" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C77" t="n">
         <v>3.7</v>
       </c>
       <c r="D77" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E77" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H77" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="B80" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C80" t="n">
         <v>3.125</v>
       </c>
       <c r="D80" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E80" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F80" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G80" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H80" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="B83" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C83" t="n">
         <v>4</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H83" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="B86" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C86" t="n">
         <v>3.462</v>
       </c>
       <c r="D86" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E86" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G86" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H86" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I86" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="B89" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C89" t="n">
         <v>3.667</v>
       </c>
       <c r="D89" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E89" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H89" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I89" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="B92" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C92" t="n">
         <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E92" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F92" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="B95" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="B95" t="s">
-        <v>128</v>
       </c>
       <c r="C95" t="n">
         <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H95" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="B98" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C98" t="n">
         <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H98" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I98" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="B101" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C101" t="n">
         <v>3.356</v>
       </c>
       <c r="D101" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E101" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F101" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H101" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I101" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="B104" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C104" t="n">
         <v>3.03</v>
       </c>
       <c r="D104" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E104" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F104" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G104" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H104" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I104" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="B105" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C105" t="n">
         <v>3.6</v>
       </c>
       <c r="D105" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E105" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H105" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I105" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="B108" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C108" t="n">
         <v>3.0715</v>
       </c>
       <c r="D108" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E108" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F108" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H108" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I108" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="B111" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C111" t="n">
         <v>3.591</v>
       </c>
       <c r="D111" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E111" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F111" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H111" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="B112" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C112" t="n">
         <v>3.231</v>
       </c>
       <c r="D112" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E112" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H112" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I112" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="B115" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C115" t="n">
         <v>3.3215</v>
       </c>
       <c r="D115" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E115" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F115" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H115" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I115" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="B118" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C118" t="n">
         <v>2.4443</v>
       </c>
       <c r="D118" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="E118" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F118" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G118" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="H118" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I118" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="B121" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C121" t="n">
         <v>3.444</v>
       </c>
       <c r="D121" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E121" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H121" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I121" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="B124" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C124" t="n">
         <v>3.454</v>
       </c>
       <c r="D124" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E124" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F124" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H124" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I124" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="B127" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C127" t="n">
         <v>4</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H127" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I127" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="B130" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C130" t="n">
         <v>3.607</v>
       </c>
       <c r="D130" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E130" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F130" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H130" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I130" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="B133" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C133" t="n">
         <v>3.971</v>
       </c>
       <c r="D133" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E133" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H133" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I133" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="B136" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C136" t="n">
         <v>3.75</v>
       </c>
       <c r="D136" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E136" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F136" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H136" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I136" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="B139" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C139" t="n">
         <v>3.391</v>
       </c>
       <c r="D139" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E139" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F139" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G139" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H139" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I139" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="B142" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C142" t="n">
         <v>4</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H142" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I142" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="B143" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C143" t="n">
         <v>4</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H143" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I143" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="B144" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C144" t="n">
         <v>4</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H144" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I144" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="B145" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C145" t="n">
         <v>3.6</v>
       </c>
       <c r="D145" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H145" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I145" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="B148" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C148" t="n">
         <v>4</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H148" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I148" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="B151" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C151" t="n">
         <v>4</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H151" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I151" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="B154" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C154" t="n">
         <v>2.4523</v>
       </c>
       <c r="D154" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E154" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F154" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G154" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H154" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I154" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="B157" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C157" t="n">
         <v>2.9</v>
       </c>
       <c r="D157" t="s">
+        <v>104</v>
+      </c>
+      <c r="E157" t="s">
+        <v>103</v>
+      </c>
+      <c r="F157" t="s">
         <v>102</v>
       </c>
-      <c r="E157" t="s">
-        <v>101</v>
-      </c>
-      <c r="F157" t="s">
-        <v>100</v>
-      </c>
       <c r="G157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H157" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I157" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="B160" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C160" t="n">
         <v>3.1175</v>
       </c>
       <c r="D160" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E160" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F160" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H160" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I160" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="B163" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C163" t="n">
         <v>2.941</v>
       </c>
       <c r="D163" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E163" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F163" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H163" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I163" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="B166" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C166" t="n">
         <v>2.969</v>
       </c>
       <c r="D166" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E166" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F166" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H166" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I166" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="B169" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C169" t="n">
         <v>4</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H169" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I169" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="B172" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C172" t="n">
         <v>2.857</v>
       </c>
       <c r="D172" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E172" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F172" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G172" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H172" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I172" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="B175" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C175" t="n">
         <v>2.79</v>
       </c>
       <c r="D175" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E175" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F175" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G175" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="H175" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I175" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="B178" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C178" t="n">
         <v>2.615</v>
       </c>
       <c r="D178" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E178" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F178" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G178" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H178" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I178" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="B181" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C181" t="n">
         <v>3.5165</v>
       </c>
       <c r="D181" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E181" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H181" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I181" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="B184" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C184" t="n">
         <v>2.988</v>
       </c>
       <c r="D184" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E184" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F184" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="G184" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="H184" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>243</v>
+      </c>
+      <c r="I184" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="B187" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C187" t="n">
         <v>2.717</v>
       </c>
       <c r="D187" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E187" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F187" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G187" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="H187" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I187" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="B188" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C188" t="n">
         <v>2.477</v>
       </c>
       <c r="D188" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E188" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F188" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G188" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H188" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>253</v>
+      </c>
+      <c r="I188" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="B189" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C189" t="n">
         <v>1.786</v>
       </c>
       <c r="D189" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E189" t="s">
+        <v>66</v>
+      </c>
+      <c r="F189" t="s">
         <v>64</v>
       </c>
-      <c r="F189" t="s">
-        <v>62</v>
-      </c>
       <c r="G189" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H189" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I189" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="B192" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C192" t="n">
         <v>4</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H192" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I192" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="B195" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C195" t="n">
         <v>3.518</v>
       </c>
       <c r="D195" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E195" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F195" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H195" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I195" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="B198" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C198" t="n">
         <v>3.6</v>
       </c>
       <c r="D198" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E198" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H198" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I198" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="B201" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C201" t="n">
         <v>4</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H201" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I201" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="B204" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C204" t="n">
         <v>3.588</v>
       </c>
       <c r="D204" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E204" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F204" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="G204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H204" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I204" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="B207" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C207" t="n">
         <v>3.826</v>
       </c>
       <c r="D207" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E207" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F207" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G207" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H207" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I207" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="B210" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C210" t="n">
         <v>3.542</v>
       </c>
       <c r="D210" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E210" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F210" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G210" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H210" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I210" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="B213" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C213" t="n">
         <v>3.375</v>
       </c>
       <c r="D213" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E213" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F213" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G213" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H213" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I213" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="B216" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C216" t="n">
         <v>4</v>
       </c>
       <c r="D216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E216" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F216" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G216" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H216" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I216" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="B219" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C219" t="n">
         <v>3</v>
       </c>
       <c r="D219" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E219" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F219" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G219" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H219" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I219" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="B222" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C222" t="n">
         <v>4</v>
       </c>
       <c r="D222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E222" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F222" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G222" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H222" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I222" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="B223" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C223" t="n">
         <v>3.556</v>
       </c>
       <c r="D223" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E223" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F223" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G223" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H223" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I223" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="B226" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C226" t="n">
         <v>3.5</v>
       </c>
       <c r="D226" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E226" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F226" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G226" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H226" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I226" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="B229" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C229" t="n">
         <v>4</v>
       </c>
       <c r="D229" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E229" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F229" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G229" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H229" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I229" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="A231" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="B232" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C232" t="n">
         <v>3.8255</v>
       </c>
       <c r="D232" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E232" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F232" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G232" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H232" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I232" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="A234" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="B235" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C235" t="n">
         <v>3.875</v>
       </c>
       <c r="D235" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E235" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F235" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G235" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H235" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I235" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="A237" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="B238" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C238" t="n">
         <v>3.6343</v>
       </c>
       <c r="D238" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="E238" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F238" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="G238" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="H238" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>293</v>
+      </c>
+      <c r="I238" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="A240" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="B241" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C241" t="n">
         <v>3.255</v>
       </c>
       <c r="D241" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E241" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F241" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="G241" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H241" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I241" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="A243" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="B244" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C244" t="n">
         <v>3.154</v>
       </c>
       <c r="D244" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E244" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F244" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G244" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H244" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I244" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="A246" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
       <c r="B247" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C247" t="n">
         <v>4</v>
       </c>
       <c r="D247" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E247" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F247" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G247" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H247" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I247" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
